--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5376F769-80E8-49D8-81C9-9B818E9DDD22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F20BB7-A7F1-46D9-BC37-F8A702C2201F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="4870" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10090" yWindow="750" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>ＡＷＢ番号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,7 +69,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -80,7 +80,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -97,7 +97,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -108,7 +108,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -125,7 +125,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -136,7 +136,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -153,7 +153,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -164,7 +164,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -181,7 +181,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -192,7 +192,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -202,143 +202,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>品名1美</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⾦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申报价值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>品名2美</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⾦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申报价值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>品名3美</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⾦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申报价值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>品名4美</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⾦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申报价值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>品名5美</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⾦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申报价值</t>
-    </r>
+    <t>换单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +250,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,12 +313,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,6 +330,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,80 +609,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F20BB7-A7F1-46D9-BC37-F8A702C2201F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E945FA-FBE1-49E9-9522-CDA6C9479A14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10090" yWindow="750" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4870" yWindow="1360" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ＡＷＢ番号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报运费单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,63 +142,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>品名4美</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⾦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申报价值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>品名5美</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⾦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申报价值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>换单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運賃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报运费USD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,27 +557,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" customWidth="1"/>
+    <col min="7" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -637,9 +585,11 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -650,14 +600,8 @@
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -672,22 +616,16 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -1,64 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E945FA-FBE1-49E9-9522-CDA6C9479A14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4870" yWindow="1360" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="18020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>ＡＷＢ番号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换单号</t>
   </si>
   <si>
     <t>貨物個数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>貨物重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仕入書価格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運賃</t>
   </si>
   <si>
     <t>ＢＰＲ按分係数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总申报价值USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>申报运费USD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>品名1美</t>
     </r>
     <r>
@@ -67,7 +68,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>⾦</t>
@@ -78,15 +78,20 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>申报价值</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>品名2美</t>
     </r>
     <r>
@@ -95,7 +100,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>⾦</t>
@@ -106,15 +110,20 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>申报价值</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>品名3美</t>
     </r>
     <r>
@@ -123,7 +132,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>⾦</t>
@@ -134,42 +142,202 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>申报价值</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>運賃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报运费USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>品名4美</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申报价值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品名5美</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申报价值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品名6美</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申报价值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品名7美</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申报价值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品名8美</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申报价值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品名9美</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申报价值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品名10美</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申报价值</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +346,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +354,166 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,20 +521,10 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,7 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,12 +551,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,51 +746,337 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0000FF"/>
+      <color rgb="000000FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,7 +1125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -372,7 +1160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,90 +1334,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" customWidth="1"/>
-    <col min="7" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.4107142857143" customWidth="1"/>
+    <col min="5" max="6" width="14.0803571428571" customWidth="1"/>
+    <col min="7" max="16" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="22" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\development\pdf_tools\workspace\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B365E7-53A6-4712-91AE-1A78A52F633D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1BE7D8-300A-42A9-9C46-A007EDB9DF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2860" windowWidth="30690" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>ＡＷＢ番号</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>重量</t>
-  </si>
-  <si>
-    <t>总申报价值USD</t>
   </si>
   <si>
     <r>
@@ -355,6 +352,26 @@
   </si>
   <si>
     <t>申报运费</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通貨レート</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率币种</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总申报价值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报币种</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -768,18 +785,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.4140625" customWidth="1"/>
-    <col min="5" max="7" width="14.08203125" customWidth="1"/>
-    <col min="8" max="17" width="19.5" customWidth="1"/>
+    <col min="5" max="10" width="14.08203125" customWidth="1"/>
+    <col min="11" max="20" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,19 +814,15 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
@@ -829,8 +844,17 @@
       <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -841,44 +865,53 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
